--- a/data/trans_camb/P1424_2016_2023-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1424_2016_2023-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
         <v>2.048050177786483</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>3.225761301305142</v>
+        <v>3.225761301305141</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>2.574807236532459</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1631796040402823</v>
+        <v>0.3084171189136276</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.06524080654495963</v>
+        <v>0.2362125765507843</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7508209862463381</v>
+        <v>0.7799780704238363</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.276402976439206</v>
+        <v>5.25368386230805</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.891731424274109</v>
+        <v>8.062396372557117</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.143329614466893</v>
+        <v>4.944891243622431</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         <v>4.269931762699589</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>1.384269984940626</v>
+        <v>1.384269984940625</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>1.868427477653349</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6229095709073915</v>
+        <v>-0.5302855349930445</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1646124935400154</v>
+        <v>-0.2088463362160689</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1893812822978836</v>
+        <v>0.248653716528047</v>
       </c>
     </row>
     <row r="9">
@@ -650,10 +650,10 @@
       </c>
       <c r="C9" s="6" t="inlineStr"/>
       <c r="D9" s="6" t="n">
-        <v>6.416637629045764</v>
+        <v>5.175139305311643</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>6.252132071060996</v>
+        <v>5.868629183662602</v>
       </c>
     </row>
     <row r="10">
@@ -685,13 +685,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2827587416746664</v>
+        <v>-0.4969145015832311</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.494195058024896</v>
+        <v>1.397257271058852</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.136013125841671</v>
+        <v>1.163546485467216</v>
       </c>
     </row>
     <row r="12">
@@ -702,13 +702,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.44342048377044</v>
+        <v>3.214416686998817</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.590398372076614</v>
+        <v>6.450890462234246</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.36024664136648</v>
+        <v>4.402404757027266</v>
       </c>
     </row>
     <row r="13">
@@ -736,13 +736,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2711725014335394</v>
+        <v>-0.4707193360813412</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.3986626914560956</v>
+        <v>0.4479859102552433</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.4949518417834421</v>
+        <v>0.4553197045052105</v>
       </c>
     </row>
     <row r="15">
@@ -753,13 +753,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5.593065664484638</v>
+        <v>4.338852507144362</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4.862207882943054</v>
+        <v>5.012055400032648</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.668126405012164</v>
+        <v>3.675536290337106</v>
       </c>
     </row>
     <row r="16">
@@ -777,7 +777,7 @@
         <v>2.616528607890707</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.5997270330859416</v>
+        <v>0.5997270330859429</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>1.619988026318937</v>
@@ -791,13 +791,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.775567259923478</v>
+        <v>0.8190349329966169</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.471777467575979</v>
+        <v>-1.760518392665843</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.06158270660983332</v>
+        <v>0.1261355985239129</v>
       </c>
     </row>
     <row r="18">
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.847249696955211</v>
+        <v>4.867124582813218</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.912653282363682</v>
+        <v>2.978228891383381</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.191043667463634</v>
+        <v>3.174394800382157</v>
       </c>
     </row>
     <row r="19">
@@ -828,10 +828,10 @@
         <v>1.58352042530883</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.1094823594755443</v>
+        <v>0.1094823594755445</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.455819685390195</v>
+        <v>0.4558196853901947</v>
       </c>
     </row>
     <row r="20">
@@ -842,13 +842,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2036084230758929</v>
+        <v>0.1994298933120023</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2244343893444397</v>
+        <v>-0.2755575041181454</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.001272516372302</v>
+        <v>0.01602205780706478</v>
       </c>
     </row>
     <row r="21">
@@ -859,13 +859,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>4.869366343634695</v>
+        <v>4.37712699333224</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.675712331827101</v>
+        <v>0.6846501928946933</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.117037492505877</v>
+        <v>1.095944499021155</v>
       </c>
     </row>
     <row r="22">
@@ -897,13 +897,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3594333630009948</v>
+        <v>0.3601858637535362</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07261556387869403</v>
+        <v>0.06330128579788614</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9220593370923713</v>
+        <v>1.032955420734229</v>
       </c>
     </row>
     <row r="24">
@@ -914,13 +914,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.892645046100996</v>
+        <v>4.826745685245185</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.823555416060742</v>
+        <v>5.769142384964371</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.47835558469545</v>
+        <v>4.60003263687863</v>
       </c>
     </row>
     <row r="25">
@@ -948,13 +948,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.05603653673564559</v>
+        <v>0.07402662354032244</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.001521296717783698</v>
+        <v>0.006112472861701116</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1393430657210221</v>
+        <v>0.1339717084125063</v>
       </c>
     </row>
     <row r="27">
@@ -965,13 +965,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.468630744790688</v>
+        <v>2.555306324233689</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.9227240206678017</v>
+        <v>0.9341844802600299</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.014781036819932</v>
+        <v>1.028190068055898</v>
       </c>
     </row>
     <row r="28">
@@ -1003,13 +1003,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2451955513399686</v>
+        <v>0.3329834254668371</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.201713217003577</v>
+        <v>-2.068299244318855</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.07091942231942346</v>
+        <v>0.08351429033003338</v>
       </c>
     </row>
     <row r="30">
@@ -1020,13 +1020,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.51348248044938</v>
+        <v>5.645113583948992</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.882438845421595</v>
+        <v>4.954006295084523</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.510093437688845</v>
+        <v>4.526693622655404</v>
       </c>
     </row>
     <row r="31">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.01069913974235359</v>
+        <v>0.01619054276401023</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1682043310951687</v>
+        <v>-0.1584596987907677</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.02296325377098014</v>
+        <v>-0.008758701890349883</v>
       </c>
     </row>
     <row r="33">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.497715937158217</v>
+        <v>2.54430765859423</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.596449698960751</v>
+        <v>0.5934171986261809</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.7423918132584743</v>
+        <v>0.8041484639751836</v>
       </c>
     </row>
     <row r="34">
@@ -1095,10 +1095,10 @@
         <v>1.164956998521639</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>1.187749356902683</v>
+        <v>1.187749356902681</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1.077491441183286</v>
+        <v>1.077491441183287</v>
       </c>
     </row>
     <row r="35">
@@ -1109,13 +1109,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.5617952993271</v>
+        <v>-0.4914250781632215</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.094535187899498</v>
+        <v>-2.758524075185526</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.225975655334251</v>
+        <v>-1.292279880578402</v>
       </c>
     </row>
     <row r="36">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.92216112835225</v>
+        <v>3.026439651659625</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>4.994065377917724</v>
+        <v>4.871600519126028</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.215658543754198</v>
+        <v>3.315690156600227</v>
       </c>
     </row>
     <row r="37">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C37" s="6" t="n">
-        <v>0.8125982198794458</v>
+        <v>0.8125982198794456</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>0.1135798516951629</v>
+        <v>0.1135798516951628</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.1732107259051008</v>
+        <v>0.173210725905101</v>
       </c>
     </row>
     <row r="38">
@@ -1160,13 +1160,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.2955034096510545</v>
+        <v>-0.2930378181493088</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2266682730247067</v>
+        <v>-0.2065507323593332</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1730017992539635</v>
+        <v>-0.1713803397612629</v>
       </c>
     </row>
     <row r="39">
@@ -1177,13 +1177,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>5.083538644260712</v>
+        <v>5.765693957269532</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.638983009311082</v>
+        <v>0.5981384764150903</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.6487972477247607</v>
+        <v>0.6996150910143746</v>
       </c>
     </row>
     <row r="40">
@@ -1201,10 +1201,10 @@
         <v>2.797491727349609</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>2.882811153727741</v>
+        <v>2.882811153727739</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2.794887675273964</v>
+        <v>2.794887675273963</v>
       </c>
     </row>
     <row r="41">
@@ -1215,13 +1215,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.05288757301310421</v>
+        <v>-0.05018771271017593</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.013251059418329</v>
+        <v>-1.394092671526773</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.2269298154857197</v>
+        <v>0.2098097729770161</v>
       </c>
     </row>
     <row r="42">
@@ -1232,13 +1232,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>5.533272288207374</v>
+        <v>5.367329066483411</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>6.492428798342686</v>
+        <v>6.203500672410413</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5.265054786003048</v>
+        <v>5.246744424605691</v>
       </c>
     </row>
     <row r="43">
@@ -1252,10 +1252,10 @@
         <v>1.265945192750333</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>0.3703954519297277</v>
+        <v>0.3703954519297274</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.4987725502318777</v>
+        <v>0.4987725502318775</v>
       </c>
     </row>
     <row r="44">
@@ -1266,13 +1266,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.08357134178235608</v>
+        <v>-0.121141638442284</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1209660747784983</v>
+        <v>-0.1372027102169243</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.002510332136465952</v>
+        <v>0.03161320082891525</v>
       </c>
     </row>
     <row r="45">
@@ -1283,13 +1283,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>5.547167272694463</v>
+        <v>5.734266086785045</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.173100779161699</v>
+        <v>1.127182454125295</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.283170191322704</v>
+        <v>1.297060377850752</v>
       </c>
     </row>
     <row r="46">
@@ -1307,7 +1307,7 @@
         <v>2.378463178011994</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>2.618157573927547</v>
+        <v>2.618157573927549</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>2.516340247418676</v>
@@ -1321,13 +1321,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>1.470276334871456</v>
+        <v>1.470048317992025</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>1.515003837805597</v>
+        <v>1.505458565279558</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1.778108056225016</v>
+        <v>1.814941635963453</v>
       </c>
     </row>
     <row r="48">
@@ -1338,13 +1338,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>3.208626652828511</v>
+        <v>3.19298848412223</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>3.851096537197539</v>
+        <v>3.80284214534584</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>3.311325872938584</v>
+        <v>3.192901510153345</v>
       </c>
     </row>
     <row r="49">
@@ -1358,7 +1358,7 @@
         <v>1.248265612522242</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>0.3994824427258368</v>
+        <v>0.3994824427258371</v>
       </c>
       <c r="E49" s="6" t="n">
         <v>0.5879365764441523</v>
@@ -1372,13 +1372,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.6368374766978752</v>
+        <v>0.6382567748381212</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.2148567423070805</v>
+        <v>0.2026391375301642</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.371048557709372</v>
+        <v>0.3922249626662954</v>
       </c>
     </row>
     <row r="51">
@@ -1389,13 +1389,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>1.999856261061634</v>
+        <v>2.03157413121154</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.6590919526337117</v>
+        <v>0.6328625836994934</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.8161785464469916</v>
+        <v>0.8193667018896966</v>
       </c>
     </row>
     <row r="52">
